--- a/data/pca/factorExposure/factorExposure_2010-06-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-10.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01321351013933974</v>
+        <v>-0.01685279917967418</v>
       </c>
       <c r="C2">
-        <v>0.00335177748942423</v>
+        <v>0.0008604386443904444</v>
       </c>
       <c r="D2">
-        <v>-0.01205429189108591</v>
+        <v>0.008634402527245415</v>
       </c>
       <c r="E2">
-        <v>-0.02970473198502944</v>
+        <v>-0.002363329764805622</v>
       </c>
       <c r="F2">
-        <v>-0.02335021054597188</v>
+        <v>-0.01329799746889493</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1231858798868959</v>
+        <v>-0.0957265209536456</v>
       </c>
       <c r="C4">
-        <v>0.1028726656898336</v>
+        <v>0.01755805486940882</v>
       </c>
       <c r="D4">
-        <v>0.004294415575016827</v>
+        <v>0.08143103524280837</v>
       </c>
       <c r="E4">
-        <v>0.08969135075281451</v>
+        <v>0.02642793244299401</v>
       </c>
       <c r="F4">
-        <v>-0.145848928482004</v>
+        <v>0.03989896104024312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1331035027544803</v>
+        <v>-0.1523531072584512</v>
       </c>
       <c r="C6">
-        <v>0.05763015554725904</v>
+        <v>0.02444039244019997</v>
       </c>
       <c r="D6">
-        <v>0.01008999073917132</v>
+        <v>-0.02293449147487223</v>
       </c>
       <c r="E6">
-        <v>0.03429491832478615</v>
+        <v>0.01570920150472233</v>
       </c>
       <c r="F6">
-        <v>-0.0169992815048396</v>
+        <v>0.03878281973314975</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06811177720159564</v>
+        <v>-0.06186273218402677</v>
       </c>
       <c r="C7">
-        <v>0.07367490358863453</v>
+        <v>6.452098075450196e-05</v>
       </c>
       <c r="D7">
-        <v>-0.01659717431298081</v>
+        <v>0.0517016894385976</v>
       </c>
       <c r="E7">
-        <v>-0.003424850790744589</v>
+        <v>0.01289157872236456</v>
       </c>
       <c r="F7">
-        <v>-0.01614845184761179</v>
+        <v>0.05837756604420217</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04788703566727765</v>
+        <v>-0.05972614154081757</v>
       </c>
       <c r="C8">
-        <v>0.02006588751378497</v>
+        <v>-0.01265868920750735</v>
       </c>
       <c r="D8">
-        <v>0.0002036382050321702</v>
+        <v>0.02800657740050354</v>
       </c>
       <c r="E8">
-        <v>0.06997150966083919</v>
+        <v>0.01226120856520725</v>
       </c>
       <c r="F8">
-        <v>-0.08195306274866068</v>
+        <v>-0.0217223917154769</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08815631969719714</v>
+        <v>-0.07278586673176095</v>
       </c>
       <c r="C9">
-        <v>0.08045432705726413</v>
+        <v>0.01375803835996764</v>
       </c>
       <c r="D9">
-        <v>0.02121987314561967</v>
+        <v>0.08095027300625583</v>
       </c>
       <c r="E9">
-        <v>0.07924916904289903</v>
+        <v>0.02085019849690102</v>
       </c>
       <c r="F9">
-        <v>-0.1222556612556042</v>
+        <v>0.06180738900513078</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1327363083429889</v>
+        <v>-0.09214406445408757</v>
       </c>
       <c r="C10">
-        <v>-0.1724130424949882</v>
+        <v>0.0146119154423299</v>
       </c>
       <c r="D10">
-        <v>-0.005802537440511004</v>
+        <v>-0.1729945834463299</v>
       </c>
       <c r="E10">
-        <v>-0.0340469982537022</v>
+        <v>-0.03522782665918697</v>
       </c>
       <c r="F10">
-        <v>0.02633869712136576</v>
+        <v>-0.05093692340328834</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06729925013675581</v>
+        <v>-0.08832757442464262</v>
       </c>
       <c r="C11">
-        <v>0.06595686506961745</v>
+        <v>0.01291165413756241</v>
       </c>
       <c r="D11">
-        <v>0.04156443467305582</v>
+        <v>0.1108377823799148</v>
       </c>
       <c r="E11">
-        <v>0.06029868098034385</v>
+        <v>0.04094711058541713</v>
       </c>
       <c r="F11">
-        <v>-0.0909456444128121</v>
+        <v>0.02798218246746037</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06777038455219443</v>
+        <v>-0.09324928440143547</v>
       </c>
       <c r="C12">
-        <v>0.07098710982201255</v>
+        <v>0.01084441330422249</v>
       </c>
       <c r="D12">
-        <v>0.05152661749390437</v>
+        <v>0.1177976569457974</v>
       </c>
       <c r="E12">
-        <v>0.08950403399773722</v>
+        <v>0.03892113176037353</v>
       </c>
       <c r="F12">
-        <v>-0.06624202944380392</v>
+        <v>0.03013752847729909</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03810632892312832</v>
+        <v>-0.04399763649995137</v>
       </c>
       <c r="C13">
-        <v>0.03959996114660113</v>
+        <v>0.004690427202788733</v>
       </c>
       <c r="D13">
-        <v>-0.02179298959110792</v>
+        <v>0.0432553156515819</v>
       </c>
       <c r="E13">
-        <v>0.02466304438048645</v>
+        <v>-0.01531201940777402</v>
       </c>
       <c r="F13">
-        <v>-0.02302814624495389</v>
+        <v>0.02032513703559576</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03434132048832036</v>
+        <v>-0.02205369711075495</v>
       </c>
       <c r="C14">
-        <v>0.03575408497542334</v>
+        <v>0.01479754133460602</v>
       </c>
       <c r="D14">
-        <v>0.01707659508234114</v>
+        <v>0.03172283893315891</v>
       </c>
       <c r="E14">
-        <v>0.03675771196996428</v>
+        <v>0.01564538721782019</v>
       </c>
       <c r="F14">
-        <v>-0.04049635090713351</v>
+        <v>0.02665051859648041</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0193635625451882</v>
+        <v>-0.03260664533965865</v>
       </c>
       <c r="C15">
-        <v>0.01513382504052431</v>
+        <v>0.005825403897954511</v>
       </c>
       <c r="D15">
-        <v>-0.06909597713003164</v>
+        <v>0.04308015831348615</v>
       </c>
       <c r="E15">
-        <v>-0.009753583791351488</v>
+        <v>0.007182021970484629</v>
       </c>
       <c r="F15">
-        <v>-0.02855159481582866</v>
+        <v>0.03429444506904294</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07634415426975752</v>
+        <v>-0.07539994664839909</v>
       </c>
       <c r="C16">
-        <v>0.07895139386057252</v>
+        <v>0.004741299483537172</v>
       </c>
       <c r="D16">
-        <v>0.03786311671755992</v>
+        <v>0.1151264055388269</v>
       </c>
       <c r="E16">
-        <v>0.07214194783145721</v>
+        <v>0.05630809157957903</v>
       </c>
       <c r="F16">
-        <v>-0.06782773399831402</v>
+        <v>0.0364030118656351</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02030290778316182</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00389168580124988</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02184418357273942</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.0104668404807747</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02873401424244201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04731177929530317</v>
+        <v>-0.06165439104263094</v>
       </c>
       <c r="C20">
-        <v>0.02393507649385226</v>
+        <v>0.002423353973765465</v>
       </c>
       <c r="D20">
-        <v>-0.03307455833944967</v>
+        <v>0.07017201077374291</v>
       </c>
       <c r="E20">
-        <v>0.06638682668037225</v>
+        <v>0.05080088323737601</v>
       </c>
       <c r="F20">
-        <v>-0.04211707907192201</v>
+        <v>0.03166385691258539</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02319278892597342</v>
+        <v>-0.03848034217377298</v>
       </c>
       <c r="C21">
-        <v>0.01895411367278547</v>
+        <v>0.007876444984254419</v>
       </c>
       <c r="D21">
-        <v>0.01495627202084968</v>
+        <v>0.032719508896744</v>
       </c>
       <c r="E21">
-        <v>0.01735830911080482</v>
+        <v>-0.01308125939831796</v>
       </c>
       <c r="F21">
-        <v>-0.06090499936552177</v>
+        <v>-0.01904657754929555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05443152987196474</v>
+        <v>-0.04234363722123992</v>
       </c>
       <c r="C22">
-        <v>0.01429814382669797</v>
+        <v>0.0007330107535765634</v>
       </c>
       <c r="D22">
-        <v>-0.644163994960814</v>
+        <v>0.001766013999217909</v>
       </c>
       <c r="E22">
-        <v>0.1170848348450871</v>
+        <v>0.03328267474560057</v>
       </c>
       <c r="F22">
-        <v>0.100530113414923</v>
+        <v>-0.02369517959031515</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05535219312009679</v>
+        <v>-0.04243867760479323</v>
       </c>
       <c r="C23">
-        <v>0.01604964481393435</v>
+        <v>0.0007671653443718001</v>
       </c>
       <c r="D23">
-        <v>-0.6464380081584934</v>
+        <v>0.001972497136942802</v>
       </c>
       <c r="E23">
-        <v>0.1202256927901874</v>
+        <v>0.0337021139363032</v>
       </c>
       <c r="F23">
-        <v>0.09642026511292583</v>
+        <v>-0.02315745609541476</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07551180788742241</v>
+        <v>-0.08172848357982312</v>
       </c>
       <c r="C24">
-        <v>0.07831492482204026</v>
+        <v>0.004932608812145234</v>
       </c>
       <c r="D24">
-        <v>0.02895739478252647</v>
+        <v>0.1146543642206264</v>
       </c>
       <c r="E24">
-        <v>0.06605504727912986</v>
+        <v>0.04449329708128288</v>
       </c>
       <c r="F24">
-        <v>-0.08036698702133767</v>
+        <v>0.02874531175537227</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07426733844781737</v>
+        <v>-0.08584042217298525</v>
       </c>
       <c r="C25">
-        <v>0.06113895101602967</v>
+        <v>0.006855272228962478</v>
       </c>
       <c r="D25">
-        <v>0.05631261154618938</v>
+        <v>0.1016537246864481</v>
       </c>
       <c r="E25">
-        <v>0.06852118798170562</v>
+        <v>0.02689886210034043</v>
       </c>
       <c r="F25">
-        <v>-0.080641356456653</v>
+        <v>0.03795860073304233</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0421411873339538</v>
+        <v>-0.05657593578222213</v>
       </c>
       <c r="C26">
-        <v>0.005327786724023367</v>
+        <v>0.01559227928237522</v>
       </c>
       <c r="D26">
-        <v>-0.01576707649946921</v>
+        <v>0.03280545512831396</v>
       </c>
       <c r="E26">
-        <v>0.09113032457265469</v>
+        <v>0.02300431081669078</v>
       </c>
       <c r="F26">
-        <v>-0.01006772642745338</v>
+        <v>-0.001697073566915855</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1609649571806495</v>
+        <v>-0.1382117610444279</v>
       </c>
       <c r="C28">
-        <v>-0.2686607154826425</v>
+        <v>0.01193691593814853</v>
       </c>
       <c r="D28">
-        <v>0.01531855677897885</v>
+        <v>-0.2719416098356454</v>
       </c>
       <c r="E28">
-        <v>0.03411165667054006</v>
+        <v>-0.06638159595289739</v>
       </c>
       <c r="F28">
-        <v>-0.01268544805908799</v>
+        <v>0.04261046528642097</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03458630982828417</v>
+        <v>-0.02750965558961374</v>
       </c>
       <c r="C29">
-        <v>0.0328937300849956</v>
+        <v>0.009127525294661595</v>
       </c>
       <c r="D29">
-        <v>0.01565310163957327</v>
+        <v>0.02996868392063799</v>
       </c>
       <c r="E29">
-        <v>0.03291942752831919</v>
+        <v>0.008209800862626352</v>
       </c>
       <c r="F29">
-        <v>-0.04502475832402043</v>
+        <v>-0.005532038677721896</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.092873323911909</v>
+        <v>-0.06479705267418299</v>
       </c>
       <c r="C30">
-        <v>0.06511985653969156</v>
+        <v>0.006689583515498186</v>
       </c>
       <c r="D30">
-        <v>0.02490722515413038</v>
+        <v>0.07841914120575678</v>
       </c>
       <c r="E30">
-        <v>0.2853103465946267</v>
+        <v>0.02159198871995991</v>
       </c>
       <c r="F30">
-        <v>-0.02458514858642422</v>
+        <v>0.1226600181697847</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03139049814820351</v>
+        <v>-0.04905387535558963</v>
       </c>
       <c r="C31">
-        <v>0.06233249499349843</v>
+        <v>0.01517611861814865</v>
       </c>
       <c r="D31">
-        <v>-0.001163442923007098</v>
+        <v>0.0290662505018963</v>
       </c>
       <c r="E31">
-        <v>0.02704282212132324</v>
+        <v>0.02646131775156936</v>
       </c>
       <c r="F31">
-        <v>-0.03744887550715961</v>
+        <v>-0.002269757580580627</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05465289475369112</v>
+        <v>-0.04915037772296728</v>
       </c>
       <c r="C32">
-        <v>0.01348244198138578</v>
+        <v>0.0005691643306411753</v>
       </c>
       <c r="D32">
-        <v>0.05434455435368641</v>
+        <v>0.02984945233376638</v>
       </c>
       <c r="E32">
-        <v>-0.01196760368866225</v>
+        <v>0.02611946654158872</v>
       </c>
       <c r="F32">
-        <v>-0.07845862269266092</v>
+        <v>0.003395786498169766</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09780571801069383</v>
+        <v>-0.09201806432774122</v>
       </c>
       <c r="C33">
-        <v>0.0798683397025656</v>
+        <v>0.01008066031885539</v>
       </c>
       <c r="D33">
-        <v>0.02620036366123338</v>
+        <v>0.09089570953284226</v>
       </c>
       <c r="E33">
-        <v>0.06903901957219476</v>
+        <v>0.04350146585914388</v>
       </c>
       <c r="F33">
-        <v>-0.01191711794507378</v>
+        <v>0.04427381208014042</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06699373006605883</v>
+        <v>-0.06932898307017725</v>
       </c>
       <c r="C34">
-        <v>0.05937986882118183</v>
+        <v>0.01286216094973384</v>
       </c>
       <c r="D34">
-        <v>0.03855171146692415</v>
+        <v>0.09512801535486441</v>
       </c>
       <c r="E34">
-        <v>0.06413902144650101</v>
+        <v>0.02796018784590817</v>
       </c>
       <c r="F34">
-        <v>-0.0853729382584423</v>
+        <v>0.05375447787156003</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01734973681646867</v>
+        <v>-0.02460975401244405</v>
       </c>
       <c r="C35">
-        <v>0.006957328112567365</v>
+        <v>0.002705070638529308</v>
       </c>
       <c r="D35">
-        <v>-0.001654475506665976</v>
+        <v>0.009577137681426567</v>
       </c>
       <c r="E35">
-        <v>0.02238116915513574</v>
+        <v>0.0108668864400689</v>
       </c>
       <c r="F35">
-        <v>-0.03209462267399091</v>
+        <v>0.01220223359838552</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02392317188430523</v>
+        <v>-0.02505046703428748</v>
       </c>
       <c r="C36">
-        <v>0.01654016739202878</v>
+        <v>0.007300087328381455</v>
       </c>
       <c r="D36">
-        <v>-0.01201326118232718</v>
+        <v>0.03757725847504119</v>
       </c>
       <c r="E36">
-        <v>0.06240269866986482</v>
+        <v>0.01519764454727632</v>
       </c>
       <c r="F36">
-        <v>-0.04678640044503018</v>
+        <v>0.009411324996342662</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01924878739891553</v>
+        <v>-0.002728438143645204</v>
       </c>
       <c r="C38">
-        <v>0.04824948885978793</v>
+        <v>0.0004820871116672722</v>
       </c>
       <c r="D38">
-        <v>-0.02645477205210727</v>
+        <v>0.002979940663591148</v>
       </c>
       <c r="E38">
-        <v>-0.02761679479502412</v>
+        <v>0.003647968536721208</v>
       </c>
       <c r="F38">
-        <v>0.1321998579849984</v>
+        <v>-0.002595124750013204</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1061577627193736</v>
+        <v>-0.1111860145155271</v>
       </c>
       <c r="C39">
-        <v>0.09837652795727604</v>
+        <v>0.01866074585827854</v>
       </c>
       <c r="D39">
-        <v>0.1340078719039546</v>
+        <v>0.1465880344852209</v>
       </c>
       <c r="E39">
-        <v>0.2032153226678406</v>
+        <v>0.05036811981690747</v>
       </c>
       <c r="F39">
-        <v>-0.01944780076597215</v>
+        <v>0.04225625294390191</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02693746482933832</v>
+        <v>-0.03757752765274328</v>
       </c>
       <c r="C40">
-        <v>0.0695900783240251</v>
+        <v>0.007654522968551099</v>
       </c>
       <c r="D40">
-        <v>-0.02934055273787484</v>
+        <v>0.02944071929922152</v>
       </c>
       <c r="E40">
-        <v>-0.02365695652094525</v>
+        <v>0.001483290004686563</v>
       </c>
       <c r="F40">
-        <v>-0.07889931001751127</v>
+        <v>-0.01819836298803449</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03587185195949626</v>
+        <v>-0.02681040552851529</v>
       </c>
       <c r="C41">
-        <v>0.02577136599640537</v>
+        <v>0.006824824948935499</v>
       </c>
       <c r="D41">
-        <v>0.01772082298590901</v>
+        <v>0.01067346674573405</v>
       </c>
       <c r="E41">
-        <v>0.017966883595826</v>
+        <v>0.01121960869563269</v>
       </c>
       <c r="F41">
-        <v>0.008122566997795922</v>
+        <v>-0.01194399154152405</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04493667430400863</v>
+        <v>-0.0428396913714031</v>
       </c>
       <c r="C43">
-        <v>0.04620843376553029</v>
+        <v>0.007194194979789198</v>
       </c>
       <c r="D43">
-        <v>-0.009811982694893369</v>
+        <v>0.02074445266307421</v>
       </c>
       <c r="E43">
-        <v>0.03935761847427555</v>
+        <v>0.02527271476544773</v>
       </c>
       <c r="F43">
-        <v>0.01735563819302404</v>
+        <v>-0.01100645223548806</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09845074489613739</v>
+        <v>-0.07323801951307415</v>
       </c>
       <c r="C44">
-        <v>0.09358173143028843</v>
+        <v>0.02289598112944815</v>
       </c>
       <c r="D44">
-        <v>-0.08433822896045104</v>
+        <v>0.09773070939089869</v>
       </c>
       <c r="E44">
-        <v>0.06976557175688786</v>
+        <v>0.06453754358339125</v>
       </c>
       <c r="F44">
-        <v>-0.09453074706795478</v>
+        <v>0.1835725325886043</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03736056840915362</v>
+        <v>-0.02373468429502985</v>
       </c>
       <c r="C46">
-        <v>0.03822465228326559</v>
+        <v>0.004333487645989236</v>
       </c>
       <c r="D46">
-        <v>-0.04217932407202611</v>
+        <v>0.01153926689456564</v>
       </c>
       <c r="E46">
-        <v>0.01431040303204424</v>
+        <v>0.02098295746657242</v>
       </c>
       <c r="F46">
-        <v>-0.04539450227691722</v>
+        <v>-0.0008965629435291257</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04830820631000609</v>
+        <v>-0.05328574726004101</v>
       </c>
       <c r="C47">
-        <v>0.0455218403054759</v>
+        <v>0.003520312661100881</v>
       </c>
       <c r="D47">
-        <v>-0.003789944879361334</v>
+        <v>0.01310677093620062</v>
       </c>
       <c r="E47">
-        <v>0.005530728021198953</v>
+        <v>0.02331470464720357</v>
       </c>
       <c r="F47">
-        <v>-0.008869704301083107</v>
+        <v>-0.0474323460472642</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04468222034576881</v>
+        <v>-0.0485165506407187</v>
       </c>
       <c r="C48">
-        <v>0.01829836033950544</v>
+        <v>0.003301911420941688</v>
       </c>
       <c r="D48">
-        <v>0.01180706294006222</v>
+        <v>0.04503123211349831</v>
       </c>
       <c r="E48">
-        <v>0.04082335645992911</v>
+        <v>-0.008566822038850536</v>
       </c>
       <c r="F48">
-        <v>-0.08566269307719601</v>
+        <v>0.01775248206870222</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2263719034595343</v>
+        <v>-0.2046583736716582</v>
       </c>
       <c r="C49">
-        <v>0.03864761182887679</v>
+        <v>0.01669410378777401</v>
       </c>
       <c r="D49">
-        <v>0.02399230390691685</v>
+        <v>-0.00935658112976932</v>
       </c>
       <c r="E49">
-        <v>-0.2197487659188382</v>
+        <v>0.04066041318107033</v>
       </c>
       <c r="F49">
-        <v>0.224948103392211</v>
+        <v>0.03417252693726319</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04190276543112183</v>
+        <v>-0.0487919833026097</v>
       </c>
       <c r="C50">
-        <v>0.04535229068763658</v>
+        <v>0.01123009253088178</v>
       </c>
       <c r="D50">
-        <v>0.01492142562190745</v>
+        <v>0.02640405597955765</v>
       </c>
       <c r="E50">
-        <v>0.06862451228955641</v>
+        <v>0.02862814758580207</v>
       </c>
       <c r="F50">
-        <v>-0.02165257520500428</v>
+        <v>0.006724981230633862</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02500920619759103</v>
+        <v>-0.003229825326566123</v>
       </c>
       <c r="C51">
-        <v>-0.0009864077851204091</v>
+        <v>0.0007729451133090378</v>
       </c>
       <c r="D51">
-        <v>-0.002092848174986686</v>
+        <v>-0.001724844814767593</v>
       </c>
       <c r="E51">
-        <v>-0.05561111152693048</v>
+        <v>0.001147730734744432</v>
       </c>
       <c r="F51">
-        <v>0.01860084748858911</v>
+        <v>0.004514108780812258</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.05119851303946424</v>
+        <v>-0.1424991592622299</v>
       </c>
       <c r="C52">
-        <v>0.02522426233426347</v>
+        <v>0.01276576247809293</v>
       </c>
       <c r="D52">
-        <v>0.03302108835699025</v>
+        <v>0.04875773352831241</v>
       </c>
       <c r="E52">
-        <v>0.04774208899420575</v>
+        <v>0.01800022895029084</v>
       </c>
       <c r="F52">
-        <v>0.02089511467756814</v>
+        <v>0.03238690754957562</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1528436994697831</v>
+        <v>-0.1731207792701963</v>
       </c>
       <c r="C53">
-        <v>0.06449846154966636</v>
+        <v>0.01567154965518565</v>
       </c>
       <c r="D53">
-        <v>-0.01208659589173101</v>
+        <v>0.01603431139577111</v>
       </c>
       <c r="E53">
-        <v>-0.002518958627844878</v>
+        <v>0.03871838864303305</v>
       </c>
       <c r="F53">
-        <v>0.1090463694247356</v>
+        <v>0.06023436421914215</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05526381464458303</v>
+        <v>-0.02323786626157601</v>
       </c>
       <c r="C54">
-        <v>0.04649822338152622</v>
+        <v>0.01286881217067955</v>
       </c>
       <c r="D54">
-        <v>-0.001595853523535265</v>
+        <v>0.03167128453932577</v>
       </c>
       <c r="E54">
-        <v>0.06706339270424598</v>
+        <v>0.01265994428161479</v>
       </c>
       <c r="F54">
-        <v>-0.1185640655914201</v>
+        <v>-0.001452352300691938</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0794367301815312</v>
+        <v>-0.1144065729938687</v>
       </c>
       <c r="C55">
-        <v>0.04950851094264234</v>
+        <v>0.0144662348796722</v>
       </c>
       <c r="D55">
-        <v>0.03379282813407491</v>
+        <v>0.01430261394770736</v>
       </c>
       <c r="E55">
-        <v>-0.01316186136341266</v>
+        <v>0.03078348186044056</v>
       </c>
       <c r="F55">
-        <v>0.01886295119773918</v>
+        <v>0.04659096929325363</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.143879411354153</v>
+        <v>-0.1775916002189759</v>
       </c>
       <c r="C56">
-        <v>0.1002094549116163</v>
+        <v>0.01312519576924119</v>
       </c>
       <c r="D56">
-        <v>0.01969506376386911</v>
+        <v>0.009948346175863366</v>
       </c>
       <c r="E56">
-        <v>-0.007789861595286707</v>
+        <v>0.04353306900820075</v>
       </c>
       <c r="F56">
-        <v>0.06245764101346644</v>
+        <v>0.03057659012068525</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04404007428734068</v>
+        <v>-0.04719282869693496</v>
       </c>
       <c r="C58">
-        <v>0.03196087345005455</v>
+        <v>0.002940203366826616</v>
       </c>
       <c r="D58">
-        <v>-0.03554830682811871</v>
+        <v>0.06374710434526994</v>
       </c>
       <c r="E58">
-        <v>0.04176671698326984</v>
+        <v>0.01640246649168838</v>
       </c>
       <c r="F58">
-        <v>-0.02285133540084827</v>
+        <v>-0.04487254525520276</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2191274392100528</v>
+        <v>-0.1694381852202561</v>
       </c>
       <c r="C59">
-        <v>-0.2370381928940259</v>
+        <v>0.01369752880700496</v>
       </c>
       <c r="D59">
-        <v>0.04901641479908569</v>
+        <v>-0.2323737465907414</v>
       </c>
       <c r="E59">
-        <v>-0.04408133352545411</v>
+        <v>-0.04816719099713877</v>
       </c>
       <c r="F59">
-        <v>-0.0442956010189946</v>
+        <v>-0.02978557143514161</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.228882218927101</v>
+        <v>-0.2393694187555041</v>
       </c>
       <c r="C60">
-        <v>0.1457613749553045</v>
+        <v>-0.004498915964190127</v>
       </c>
       <c r="D60">
-        <v>0.07082344550788429</v>
+        <v>0.05013282462861175</v>
       </c>
       <c r="E60">
-        <v>-0.0978608885141373</v>
+        <v>0.01113070732872131</v>
       </c>
       <c r="F60">
-        <v>0.09682537731552886</v>
+        <v>-0.04296733417823594</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1090162222881377</v>
+        <v>-0.08599702405927623</v>
       </c>
       <c r="C61">
-        <v>0.08300136120804602</v>
+        <v>0.0145383055171508</v>
       </c>
       <c r="D61">
-        <v>0.07618331773003517</v>
+        <v>0.1083641937295571</v>
       </c>
       <c r="E61">
-        <v>0.1494991114536933</v>
+        <v>0.03348205549883585</v>
       </c>
       <c r="F61">
-        <v>-0.07295324800655272</v>
+        <v>0.02480093768126963</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1332021912400039</v>
+        <v>-0.1693511492838298</v>
       </c>
       <c r="C62">
-        <v>0.07308838115780174</v>
+        <v>0.01701136124272919</v>
       </c>
       <c r="D62">
-        <v>-0.002375657666381749</v>
+        <v>0.0130009817658514</v>
       </c>
       <c r="E62">
-        <v>-0.02476161412362466</v>
+        <v>0.03992873087198205</v>
       </c>
       <c r="F62">
-        <v>0.09020550324240385</v>
+        <v>0.0117234854530546</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0497908153665149</v>
+        <v>-0.04272473132911145</v>
       </c>
       <c r="C63">
-        <v>0.02371083380952288</v>
+        <v>0.00404850860991861</v>
       </c>
       <c r="D63">
-        <v>0.008395438763900967</v>
+        <v>0.04718865926855132</v>
       </c>
       <c r="E63">
-        <v>0.07217126720466427</v>
+        <v>0.01551989518762534</v>
       </c>
       <c r="F63">
-        <v>-0.04359860140316397</v>
+        <v>0.01139474482365822</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09430068956529268</v>
+        <v>-0.1121994153207839</v>
       </c>
       <c r="C64">
-        <v>0.05971508157539258</v>
+        <v>0.01185769794092503</v>
       </c>
       <c r="D64">
-        <v>-0.001176699600517527</v>
+        <v>0.03986106791139114</v>
       </c>
       <c r="E64">
-        <v>0.07368080313573251</v>
+        <v>0.02056979507233715</v>
       </c>
       <c r="F64">
-        <v>-0.01248136073568492</v>
+        <v>0.01668767215458833</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1216341087205285</v>
+        <v>-0.1438797145630134</v>
       </c>
       <c r="C65">
-        <v>0.04602716382515674</v>
+        <v>0.03091710505110729</v>
       </c>
       <c r="D65">
-        <v>0.0275254189327494</v>
+        <v>-0.0462458410781466</v>
       </c>
       <c r="E65">
-        <v>0.08184413551560134</v>
+        <v>0.003692844290618262</v>
       </c>
       <c r="F65">
-        <v>0.02171328443548871</v>
+        <v>0.04283889714192918</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1216169070055326</v>
+        <v>-0.1332734572874799</v>
       </c>
       <c r="C66">
-        <v>0.1300724862629932</v>
+        <v>0.01624516275661356</v>
       </c>
       <c r="D66">
-        <v>0.1204394271180076</v>
+        <v>0.1341226778850257</v>
       </c>
       <c r="E66">
-        <v>0.1869503321273898</v>
+        <v>0.05919599567148314</v>
       </c>
       <c r="F66">
-        <v>0.01169503498953607</v>
+        <v>0.04597270273144734</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07017066254693495</v>
+        <v>-0.0649604092704795</v>
       </c>
       <c r="C67">
-        <v>0.05519999792669233</v>
+        <v>0.003942761674649303</v>
       </c>
       <c r="D67">
-        <v>-0.03797846028764696</v>
+        <v>0.05522580240317135</v>
       </c>
       <c r="E67">
-        <v>-0.03738776893146784</v>
+        <v>0.02091641771680658</v>
       </c>
       <c r="F67">
-        <v>0.1416291187227904</v>
+        <v>-0.0431644743841663</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1349684690324553</v>
+        <v>-0.1114743579753009</v>
       </c>
       <c r="C68">
-        <v>-0.2578257644445873</v>
+        <v>0.0229623999775619</v>
       </c>
       <c r="D68">
-        <v>0.02806465582165301</v>
+        <v>-0.2694596505730729</v>
       </c>
       <c r="E68">
-        <v>0.05305340867096633</v>
+        <v>-0.08527049644716272</v>
       </c>
       <c r="F68">
-        <v>-0.01505824501978689</v>
+        <v>0.04769216340630507</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04906481282842057</v>
+        <v>-0.04050320565656371</v>
       </c>
       <c r="C69">
-        <v>0.01683473908684792</v>
+        <v>0.001220465931284575</v>
       </c>
       <c r="D69">
-        <v>-0.004752860337388072</v>
+        <v>0.009507986637779115</v>
       </c>
       <c r="E69">
-        <v>0.02889818654743163</v>
+        <v>0.02597688686890416</v>
       </c>
       <c r="F69">
-        <v>0.01193030540947553</v>
+        <v>-0.01707424571451717</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05549328596367169</v>
+        <v>-0.0648920199179301</v>
       </c>
       <c r="C70">
-        <v>0.06119980242293321</v>
+        <v>-0.02711461750826387</v>
       </c>
       <c r="D70">
-        <v>0.02237142732654211</v>
+        <v>0.02613679410635339</v>
       </c>
       <c r="E70">
-        <v>0.01532881912031926</v>
+        <v>-0.04561282244585097</v>
       </c>
       <c r="F70">
-        <v>-0.03369653426756815</v>
+        <v>-0.3443593737439982</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1535680123404849</v>
+        <v>-0.1305545567552105</v>
       </c>
       <c r="C71">
-        <v>-0.2727201823500728</v>
+        <v>0.02699239606840245</v>
       </c>
       <c r="D71">
-        <v>0.02407799247474155</v>
+        <v>-0.2859173874363473</v>
       </c>
       <c r="E71">
-        <v>0.07650735429807566</v>
+        <v>-0.09256388313157551</v>
       </c>
       <c r="F71">
-        <v>-0.004142761798489881</v>
+        <v>0.04988558053050967</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1329129293286556</v>
+        <v>-0.1380998924455695</v>
       </c>
       <c r="C72">
-        <v>0.01604676885628532</v>
+        <v>0.02393058857080827</v>
       </c>
       <c r="D72">
-        <v>0.003825170808745797</v>
+        <v>0.00496878051042867</v>
       </c>
       <c r="E72">
-        <v>0.05068027988196227</v>
+        <v>0.0425980930591383</v>
       </c>
       <c r="F72">
-        <v>0.02058695180565496</v>
+        <v>0.02429153985592422</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2177892082610202</v>
+        <v>-0.2072712168109232</v>
       </c>
       <c r="C73">
-        <v>0.1057521617794677</v>
+        <v>0.0110115873431861</v>
       </c>
       <c r="D73">
-        <v>0.1167834180650979</v>
+        <v>0.01931872313542848</v>
       </c>
       <c r="E73">
-        <v>-0.3250196146155433</v>
+        <v>0.06820052001212565</v>
       </c>
       <c r="F73">
-        <v>0.4108587076280042</v>
+        <v>0.02496154819496055</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09931741111864789</v>
+        <v>-0.09397784837535847</v>
       </c>
       <c r="C74">
-        <v>0.09218714502714218</v>
+        <v>0.01185233285711393</v>
       </c>
       <c r="D74">
-        <v>0.007815174650489806</v>
+        <v>0.02497801566221447</v>
       </c>
       <c r="E74">
-        <v>0.03432278879425797</v>
+        <v>0.05112617392909277</v>
       </c>
       <c r="F74">
-        <v>0.1084116637194474</v>
+        <v>0.04043917653874525</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09654782109691155</v>
+        <v>-0.1302812283051668</v>
       </c>
       <c r="C75">
-        <v>0.06800824140531145</v>
+        <v>0.02622039652963828</v>
       </c>
       <c r="D75">
-        <v>0.003153911908295283</v>
+        <v>0.03433047694769269</v>
       </c>
       <c r="E75">
-        <v>-0.008920361095342246</v>
+        <v>0.06122216627568698</v>
       </c>
       <c r="F75">
-        <v>1.122105842300846e-05</v>
+        <v>0.009377705923329604</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.05566800061828621</v>
+        <v>-0.007525141434828565</v>
       </c>
       <c r="C76">
-        <v>0.06564666880061081</v>
+        <v>0.001668102175083333</v>
       </c>
       <c r="D76">
-        <v>-0.008090037375268772</v>
+        <v>0.003054161410000752</v>
       </c>
       <c r="E76">
-        <v>-0.05058235922288919</v>
+        <v>0.007611854319667028</v>
       </c>
       <c r="F76">
-        <v>0.03517874079363847</v>
+        <v>0.004166680497231967</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06732514804103105</v>
+        <v>-0.08049245019472598</v>
       </c>
       <c r="C77">
-        <v>0.03029939944139753</v>
+        <v>0.01057199532141741</v>
       </c>
       <c r="D77">
-        <v>0.03770166920170812</v>
+        <v>0.1088077682858983</v>
       </c>
       <c r="E77">
-        <v>0.08046849280612649</v>
+        <v>0.03315600182025248</v>
       </c>
       <c r="F77">
-        <v>-0.1271853632709722</v>
+        <v>0.03448638222913099</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.156839547894681</v>
+        <v>-0.1101561296467093</v>
       </c>
       <c r="C78">
-        <v>0.128467319279186</v>
+        <v>0.0431358853838259</v>
       </c>
       <c r="D78">
-        <v>-0.1810425677977049</v>
+        <v>0.1183269359970425</v>
       </c>
       <c r="E78">
-        <v>-0.4255219347278967</v>
+        <v>0.08961920087639784</v>
       </c>
       <c r="F78">
-        <v>-0.6117757276957753</v>
+        <v>0.07664283945005987</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1303557777728069</v>
+        <v>-0.1632927379262819</v>
       </c>
       <c r="C79">
-        <v>0.08494474434215676</v>
+        <v>0.02016488445146015</v>
       </c>
       <c r="D79">
-        <v>-0.009591264364159191</v>
+        <v>0.01973122884798968</v>
       </c>
       <c r="E79">
-        <v>0.01415237961474647</v>
+        <v>0.0491858211078869</v>
       </c>
       <c r="F79">
-        <v>0.0464606310682377</v>
+        <v>0.005531906625453076</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07023121668596512</v>
+        <v>-0.08072537249443983</v>
       </c>
       <c r="C80">
-        <v>0.05090463774985299</v>
+        <v>-0.0008211983901188951</v>
       </c>
       <c r="D80">
-        <v>0.08212159226651855</v>
+        <v>0.05543310336110772</v>
       </c>
       <c r="E80">
-        <v>0.03703885559640594</v>
+        <v>0.02931639623463611</v>
       </c>
       <c r="F80">
-        <v>-0.02078695305298729</v>
+        <v>-0.01013987827670024</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1252091788094782</v>
+        <v>-0.1231679672871464</v>
       </c>
       <c r="C81">
-        <v>0.08013375950073058</v>
+        <v>0.03005920721938267</v>
       </c>
       <c r="D81">
-        <v>-0.009955911647259738</v>
+        <v>0.01994315076487776</v>
       </c>
       <c r="E81">
-        <v>0.05842722216686156</v>
+        <v>0.06152563171161197</v>
       </c>
       <c r="F81">
-        <v>-0.01328556660860687</v>
+        <v>-0.002148546765110046</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1263763371496387</v>
+        <v>-0.1624884583779987</v>
       </c>
       <c r="C82">
-        <v>0.06564529247974357</v>
+        <v>0.02057126889528927</v>
       </c>
       <c r="D82">
-        <v>0.009659912994765861</v>
+        <v>0.01702433747962553</v>
       </c>
       <c r="E82">
-        <v>0.04678655308977919</v>
+        <v>0.03685440855224101</v>
       </c>
       <c r="F82">
-        <v>0.06896924952606685</v>
+        <v>0.05511120263612811</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07570919444149367</v>
+        <v>-0.0660707322482811</v>
       </c>
       <c r="C83">
-        <v>0.09655163195405179</v>
+        <v>0.004034716688242014</v>
       </c>
       <c r="D83">
-        <v>0.02609146690869257</v>
+        <v>0.04947806063275791</v>
       </c>
       <c r="E83">
-        <v>0.06153608268226628</v>
+        <v>0.003185786814829933</v>
       </c>
       <c r="F83">
-        <v>0.0617320514022131</v>
+        <v>-0.03815614478770504</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05773795898568218</v>
+        <v>-0.06102748099399999</v>
       </c>
       <c r="C84">
-        <v>-0.06858567773659333</v>
+        <v>0.0114065054234886</v>
       </c>
       <c r="D84">
-        <v>0.04045782355380053</v>
+        <v>0.06025810824555718</v>
       </c>
       <c r="E84">
-        <v>-0.05565036136442512</v>
+        <v>-0.004074861314439904</v>
       </c>
       <c r="F84">
-        <v>-0.157743521382859</v>
+        <v>0.0141272781984049</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1185297354034238</v>
+        <v>-0.1381769034805444</v>
       </c>
       <c r="C85">
-        <v>0.05891641292084696</v>
+        <v>0.02548430387350908</v>
       </c>
       <c r="D85">
-        <v>0.004555004834046019</v>
+        <v>0.01600897160615997</v>
       </c>
       <c r="E85">
-        <v>0.01866993835285264</v>
+        <v>0.04101023945510453</v>
       </c>
       <c r="F85">
-        <v>0.06489806411273384</v>
+        <v>0.04157170305160107</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08722551406096023</v>
+        <v>-0.1002761609881304</v>
       </c>
       <c r="C86">
-        <v>0.03105792203748833</v>
+        <v>-0.007252677281556898</v>
       </c>
       <c r="D86">
-        <v>-0.0294233928587106</v>
+        <v>0.02041949071703436</v>
       </c>
       <c r="E86">
-        <v>-0.3411173200844991</v>
+        <v>0.1293741650183678</v>
       </c>
       <c r="F86">
-        <v>-0.1765869382046979</v>
+        <v>-0.8262093020144323</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1162955536662945</v>
+        <v>-0.1000244251636379</v>
       </c>
       <c r="C87">
-        <v>0.08202077272158109</v>
+        <v>0.02555399829302308</v>
       </c>
       <c r="D87">
-        <v>-0.01818845310131982</v>
+        <v>0.07246312950474385</v>
       </c>
       <c r="E87">
-        <v>0.01883657437072734</v>
+        <v>-0.05344435158528459</v>
       </c>
       <c r="F87">
-        <v>-0.04160321213318904</v>
+        <v>0.09166653232697378</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05868241427909696</v>
+        <v>-0.06244465295917555</v>
       </c>
       <c r="C88">
-        <v>0.06128010292637481</v>
+        <v>0.003287087057193301</v>
       </c>
       <c r="D88">
-        <v>0.03824385544609812</v>
+        <v>0.05326126045373092</v>
       </c>
       <c r="E88">
-        <v>0.05246348714536013</v>
+        <v>0.02603513465358582</v>
       </c>
       <c r="F88">
-        <v>0.02100770908266566</v>
+        <v>0.007679034628089483</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2259046459800187</v>
+        <v>-0.1315923995263613</v>
       </c>
       <c r="C89">
-        <v>-0.3680016734606047</v>
+        <v>0.005681697427266824</v>
       </c>
       <c r="D89">
-        <v>-0.04943815698199053</v>
+        <v>-0.2669767888749665</v>
       </c>
       <c r="E89">
-        <v>-0.04474993665150576</v>
+        <v>-0.09060880807843812</v>
       </c>
       <c r="F89">
-        <v>-0.03041659274965685</v>
+        <v>0.03168783090892031</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1633796418251906</v>
+        <v>-0.1426291506050627</v>
       </c>
       <c r="C90">
-        <v>-0.2557734024034616</v>
+        <v>0.02266902906632382</v>
       </c>
       <c r="D90">
-        <v>0.01893544300847679</v>
+        <v>-0.2730252762896835</v>
       </c>
       <c r="E90">
-        <v>0.04070295303330072</v>
+        <v>-0.1052741807512772</v>
       </c>
       <c r="F90">
-        <v>0.02251717677608242</v>
+        <v>0.03513281954811658</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07875556572104823</v>
+        <v>-0.1171724465132104</v>
       </c>
       <c r="C91">
-        <v>0.07343966477140598</v>
+        <v>0.01625843079548019</v>
       </c>
       <c r="D91">
-        <v>0.004307648436702166</v>
+        <v>-0.003540622947893135</v>
       </c>
       <c r="E91">
-        <v>-0.0008410357422485369</v>
+        <v>0.05978626007426162</v>
       </c>
       <c r="F91">
-        <v>0.003540257226593482</v>
+        <v>-0.03004482084777613</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1845967879667417</v>
+        <v>-0.1452706332065306</v>
       </c>
       <c r="C92">
-        <v>-0.3014282059067994</v>
+        <v>0.01439934056659624</v>
       </c>
       <c r="D92">
-        <v>-0.0229367564809065</v>
+        <v>-0.3074050224617758</v>
       </c>
       <c r="E92">
-        <v>0.03954061078853988</v>
+        <v>-0.1014757331952361</v>
       </c>
       <c r="F92">
-        <v>-0.0820015474351723</v>
+        <v>0.02817625299886506</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1743688377554821</v>
+        <v>-0.1466669379382284</v>
       </c>
       <c r="C93">
-        <v>-0.2965559585844629</v>
+        <v>0.01910410518191881</v>
       </c>
       <c r="D93">
-        <v>0.04593728984559499</v>
+        <v>-0.2756130029317915</v>
       </c>
       <c r="E93">
-        <v>0.02829715443558557</v>
+        <v>-0.07128551080935455</v>
       </c>
       <c r="F93">
-        <v>-0.009767916601821251</v>
+        <v>0.0255627181442788</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1214345116683999</v>
+        <v>-0.1337757401223484</v>
       </c>
       <c r="C94">
-        <v>0.08144353920854427</v>
+        <v>0.02352685429544847</v>
       </c>
       <c r="D94">
-        <v>-0.01409615577017665</v>
+        <v>0.04792177809076607</v>
       </c>
       <c r="E94">
-        <v>-0.005814649187665745</v>
+        <v>0.0623575798079293</v>
       </c>
       <c r="F94">
-        <v>0.03731334922030435</v>
+        <v>0.02724941626769171</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1183688601358606</v>
+        <v>-0.1273323664856837</v>
       </c>
       <c r="C95">
-        <v>0.07134997234822719</v>
+        <v>0.005819848490193368</v>
       </c>
       <c r="D95">
-        <v>-0.02331595233227882</v>
+        <v>0.09060403422033504</v>
       </c>
       <c r="E95">
-        <v>-0.059592128491973</v>
+        <v>0.04354686529731534</v>
       </c>
       <c r="F95">
-        <v>-0.1447823784464738</v>
+        <v>-0.01093891886932445</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.001033016521032337</v>
+        <v>-0.09512788002335384</v>
       </c>
       <c r="C96">
-        <v>-3.74109327276361e-05</v>
+        <v>-0.9893640770832677</v>
       </c>
       <c r="D96">
-        <v>0.001773455586612636</v>
+        <v>-0.02013264509587399</v>
       </c>
       <c r="E96">
-        <v>0.001668655595550831</v>
+        <v>0.05937295832043017</v>
       </c>
       <c r="F96">
-        <v>0.002119854050930862</v>
+        <v>0.05031961682504447</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1316503513514193</v>
+        <v>-0.1868642769089505</v>
       </c>
       <c r="C97">
-        <v>0.001020011278828738</v>
+        <v>-0.01222676294240608</v>
       </c>
       <c r="D97">
-        <v>-0.03491113203941001</v>
+        <v>-0.01312673645393748</v>
       </c>
       <c r="E97">
-        <v>0.302228276593369</v>
+        <v>0.01355050403645076</v>
       </c>
       <c r="F97">
-        <v>-0.00859251319452977</v>
+        <v>-0.1826727621167406</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2367794006069737</v>
+        <v>-0.2064915634512962</v>
       </c>
       <c r="C98">
-        <v>0.09017046337938284</v>
+        <v>0.006755135437944871</v>
       </c>
       <c r="D98">
-        <v>-0.09665377527076409</v>
+        <v>0.01612894219594826</v>
       </c>
       <c r="E98">
-        <v>-0.2450728365511863</v>
+        <v>-0.08987050167246262</v>
       </c>
       <c r="F98">
-        <v>0.1482911368520778</v>
+        <v>-0.1367937965402365</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06949160718226588</v>
+        <v>-0.05791291437322249</v>
       </c>
       <c r="C99">
-        <v>0.05856064759320698</v>
+        <v>-0.003134780702004892</v>
       </c>
       <c r="D99">
-        <v>-0.009350316728694073</v>
+        <v>0.03456351047094546</v>
       </c>
       <c r="E99">
-        <v>-0.03409435449313409</v>
+        <v>0.0268223733118756</v>
       </c>
       <c r="F99">
-        <v>0.02105785285861232</v>
+        <v>0.003756636153841516</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0001743269448573419</v>
+        <v>-0.1242196014604733</v>
       </c>
       <c r="C100">
-        <v>-0.00413742132513742</v>
+        <v>-0.04840541638260142</v>
       </c>
       <c r="D100">
-        <v>-0.001102403915667854</v>
+        <v>0.3243638903622612</v>
       </c>
       <c r="E100">
-        <v>-0.005721775977805692</v>
+        <v>-0.9049737405983256</v>
       </c>
       <c r="F100">
-        <v>-0.007466739719082542</v>
+        <v>-0.05227984195754207</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03396007383342467</v>
+        <v>-0.02743262975030722</v>
       </c>
       <c r="C101">
-        <v>0.03301107567327969</v>
+        <v>0.009140446431899475</v>
       </c>
       <c r="D101">
-        <v>0.01632266786169715</v>
+        <v>0.02973430943764456</v>
       </c>
       <c r="E101">
-        <v>0.0306592963857872</v>
+        <v>0.00814715259417971</v>
       </c>
       <c r="F101">
-        <v>-0.04429648179679115</v>
+        <v>-0.007930704963150889</v>
       </c>
     </row>
     <row r="102" spans="1:6">
